--- a/Master Item Import.xlsx
+++ b/Master Item Import.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCFAB780-07DB-4F9E-863D-29D7D85DFE34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2ED42498-408F-4E24-A544-EBE3D6B1A6AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12288" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dimensions" sheetId="3" r:id="rId1"/>
-    <sheet name="Measures" sheetId="2" r:id="rId2"/>
+    <sheet name="Introduction" sheetId="4" r:id="rId1"/>
+    <sheet name="Dimensions" sheetId="3" r:id="rId2"/>
+    <sheet name="Measures" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>%MI%DimensionField</t>
   </si>
@@ -47,15 +48,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>'Customer'</t>
-  </si>
-  <si>
-    <t>This is the customer account from Zoho CRM</t>
-  </si>
-  <si>
-    <t>Zoho CRM</t>
-  </si>
-  <si>
     <t>%MI%MeasureExpression</t>
   </si>
   <si>
@@ -77,96 +69,55 @@
     <t>%MI%MeasureId</t>
   </si>
   <si>
-    <t>$(v_df_ProjectCount)</t>
-  </si>
-  <si>
-    <t># Projects</t>
-  </si>
-  <si>
-    <t>'# Projects3'</t>
-  </si>
-  <si>
-    <t>Count of Projects</t>
-  </si>
-  <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>$(v_df_CustomerCount)</t>
-  </si>
-  <si>
     <t># Customers</t>
   </si>
   <si>
-    <t>'# Customers3'</t>
-  </si>
-  <si>
-    <t>Count of Customers (Accounts)</t>
-  </si>
-  <si>
-    <t>$(v_df_TaskHoursWorkedSum)</t>
-  </si>
-  <si>
-    <t># Hrs Worked</t>
-  </si>
-  <si>
-    <t>'# Hrs Worked3'</t>
-  </si>
-  <si>
-    <t>Total Hours worked (Billable and Non Billable)</t>
-  </si>
-  <si>
-    <t>$(v_df_TaskHoursWorkedSum)*2</t>
-  </si>
-  <si>
-    <t># Hrs Worked2</t>
-  </si>
-  <si>
-    <t>'# Hrs Worked2'</t>
-  </si>
-  <si>
-    <t>$(v_df_TaskHoursWorkedSum)*3</t>
-  </si>
-  <si>
-    <t>$(v_df_TaskHoursWorkedSum)
-*3</t>
-  </si>
-  <si>
-    <t>MultiLine</t>
-  </si>
-  <si>
-    <t>jQtrfjF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num(count(
-   {$
-    &lt;
-    DateFlagLast12Months = {1}
-    &gt;
-   }
-   distinct Inc.IncIdCount)
-  ,'#,##0')
+    <t>='Count of Customers (Accounts)'</t>
+  </si>
+  <si>
+    <t>='$(v_df_CustomerCount)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUCTIONS:
+Use this Excel Template to import your Master Items into Qlik Sense
 </t>
   </si>
   <si>
-    <t>MultiLine2</t>
-  </si>
-  <si>
-    <t>Master Item Import Demo</t>
-  </si>
-  <si>
-    <t>$(v_df_TaskHoursWorkedSum)
-*4</t>
-  </si>
-  <si>
-    <t># Hrs Worked Updated</t>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>='Account'</t>
+  </si>
+  <si>
+    <t>ExampleDimension</t>
+  </si>
+  <si>
+    <t>ExampleMeasure</t>
+  </si>
+  <si>
+    <t>='# Customers'</t>
+  </si>
+  <si>
+    <t>Example Dimension</t>
+  </si>
+  <si>
+    <t>NOTES WHEN IMPORTING:
+1. Every Imported Dimension and Measure MUST have a unique ID. (Dimensions and Measures cannot share an ID)
+2. It is recommended that you wrap expressions in equals sign and quotes [Ex: '='Sum(Dim1)']
+3. It is recommended that you wrap text based expressions in quotes [Ex: ''Example']
+REQUIRED FIELDS:
+Measure: Expression, Name
+Dimension: Field, Name</t>
+  </si>
+  <si>
+    <t>#F0F0F0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,21 +133,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,11 +188,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,15 +241,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,25 +540,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61466D8-D93A-4654-AA13-A8A7832FE511}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:N8"/>
+    <mergeCell ref="A1:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A50E883-CDBE-4A45-85D4-4AB8021491C8}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -556,337 +742,343 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G44" si="0">IF(B3&lt;&gt;"", G2+1, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G3:G44" si="0">IF(B5&lt;&gt;"", G4+1, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Warning: Not wrapping expressions is likely to cause errors when importing to Qlik Sense" sqref="C2:C1048576 D4" xr:uid="{FA33931E-9314-48DD-B8A8-FFDAC19C545C}">
+      <formula1>LEFT(C2,2)&amp;RIGHT(C2)="=''"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD163D6C-8B34-4D57-AA0E-EF936926252F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="4" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="4"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
@@ -894,286 +1086,18 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G6" si="0">IF(B3&lt;&gt;"", G2+1, "")</f>
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" ref="G5" si="1">IF(B5&lt;&gt;"", G4+1, "")</f>
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5">
-        <f>G9+1</f>
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:G17" si="2">G10+1</f>
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>20010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="2"/>
-        <v>20011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <f t="shared" si="2"/>
-        <v>20012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
-        <v>20014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <f t="shared" si="2"/>
-        <v>20015</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Warning: Not wrapping expressions in quotes is likely to cause errors when importing Master Items." prompt="Note: Expressions should be wrapped with equals sign and quotes" sqref="C2" xr:uid="{3D8D9ABC-0E66-4DDD-9C96-47DECEB13DB5}">
+      <formula1>LEFT(C2, 2)&amp;RIGHT(C2)="=''"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F5313E72-4F2D-4D63-BAC3-F56EA16AACAA}">
+      <formula1>LEFT(D2,2)&amp;RIGHT(D2) ="=''"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E0598657-AE08-4FE5-881C-6B1467E8B181}">
+      <formula1>LEFT(A2, 2)&amp;RIGHT(A2)="=''"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
